--- a/gitBranches/testMain/identifiers/excel_output/Indicators.xlsx
+++ b/gitBranches/testMain/identifiers/excel_output/Indicators.xlsx
@@ -10,8 +10,9 @@
     <sheet name="Common references" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Country-specific indicators" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="EN15804+A1 indicators" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="EN15804+A2 indicators" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Flow properties and unit groups" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="EN15804+A2 (EF3.0) indicators" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="EN15804+A2 (EF3.1) indicators" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Flow properties and unit groups" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,27 +517,11 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EN 15804+A1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>source data set</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b00f9ec0-7874-11e3-981f-0800200c9a66</t>
-        </is>
-      </c>
-    </row>
+    <row r="5"/>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EN 15804+A2</t>
+          <t>EN 15804+A1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -546,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>c0016b33-8cf7-415c-ac6e-deba0d21440d</t>
+          <t>b00f9ec0-7874-11e3-981f-0800200c9a66</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ISO 14025</t>
+          <t>EN 15804+A2 (EF 3.0)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -563,22 +548,56 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4f2eb655-6e44-4874-a95a-e28f5442cd4d</t>
+          <t>c0016b33-8cf7-415c-ac6e-deba0d21440d</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>EN 15804+A2 (EF 3.1)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>source data set</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>d4aa3ec7-b1d7-4a4a-a6cb-37af88dcc902</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ISO 14025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>source data set</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4f2eb655-6e44-4874-a95a-e28f5442cd4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>ISO 21930</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>source data set</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>9c1e8451-2321-4498-b459-b6568b6b6547</t>
         </is>
@@ -595,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +623,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="88" customWidth="1" min="2" max="2"/>
+    <col width="96" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
@@ -645,7 +664,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Global warming potential except emissions and uptake of biogenic carbon (GWP-IOBC/GHG)</t>
+          <t>Global warming potential except emissions and uptake of biogenic carbon (GWP-IOBC/GHG, EF 3.0)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -661,6 +680,357 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>Finland, Norway, Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>e03c018f-8526-44bc-b5e4-bc03c3ab32f3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Global warming potential except emissions and uptake of biogenic carbon (GWP-IOBC/GHG, EF 3.1)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>kg CO2 eqv.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Finland, Norway, Sweden</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1cf37565-0154-4f01-94e4-b4dcbf63b519</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RMI fossile</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>755a42f4-bce4-4aaf-af9b-f6ffad4dabb8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RMI metals</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eb2ad53a-874a-4c97-8017-fa2c06803b9f</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RMI minerals</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>03ee44a1-0e8a-471e-a30d-6e779361dddf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RMI forestry</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>505188c3-77bb-4bcd-bb49-2f5f328aa372</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RMI agriculture</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>f88e175e-0cf6-49dc-9219-539d023a03d3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RMI fisheries</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>32200a68-5488-49d7-9e81-0e93c0f19cc1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TMR fossile</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4be326ff-416b-400f-b835-472f33b4cf16</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TMR metals</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>a9b02237-8034-49ee-850d-876dbe6e148d</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TMR minerals</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>89c8b6c5-c525-4541-8dbd-211b8db1d3f0</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TMR forestry</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>25359720-f52a-4597-980d-3ff571bc2164</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>TMR agriculture</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5b6a0c3a-d0d3-49ff-811e-9816aa8c71f5</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TMR fisheries</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Germany</t>
         </is>
       </c>
     </row>
@@ -675,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -687,6 +1057,8 @@
     <col width="77" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="70" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -710,6 +1082,16 @@
           <t>UnitGroup UUID</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>de</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Einheit (de)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +1114,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Erneuerbare Primärenergie als Energieträger (PERE)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -754,6 +1146,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Erneuerbare Primärenergie zur stofflichen Nutzung (PERM)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -776,6 +1178,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Total erneuerbare Primärenergie (PERT)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -798,6 +1210,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nicht-erneuerbare Primärenergie als Energieträger (PENRE)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -820,6 +1242,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nicht-erneuerbare Primärenergie zur stofflichen Nutzung (PENRM)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -842,6 +1274,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Total nicht erneuerbare Primärenergie (PENRT)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -864,6 +1306,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Einsatz von Sekundärstoffen (SM)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -886,6 +1338,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Erneuerbare Sekundärbrennstoffe (RSF)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -908,6 +1370,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nicht erneuerbare Sekundärbrennstoffe (NRSF)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -930,6 +1402,16 @@
           <t>cd950537-0a98-4044-9ba7-9f9a68d0a504</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Einsatz von Süßwasserressourcen (FW)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -952,6 +1434,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gefährlicher Abfall zur Deponie (HWD)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -974,6 +1466,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Entsorgter nicht gefährlicher Abfall (NHWD)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -996,6 +1498,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Entsorgter radioaktiver Abfall (RWD)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1018,6 +1530,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Komponenten für die Wiederverwendung (CRU)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1040,6 +1562,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Stoffe zum Recycling (MFR)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1062,6 +1594,16 @@
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Stoffe für die Energierückgewinnung (MER)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1084,6 +1626,16 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exportierte elektrische Energie (EEE)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1106,158 +1658,239 @@
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>77e416eb-a363-4258-a04e-171d843a6460</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Global warming potential (GWP)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>kg CO2-eqv.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
-        </is>
-      </c>
-    </row>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exportierte thermische Energie (EET)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06dcd26f-025f-401a-a7c1-5e457eb54637</t>
+          <t>77e416eb-a363-4258-a04e-171d843a6460</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Depletion potential of the stratospheric ozone layer (ODP)</t>
+          <t>Global warming potential (GWP)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kg R11-eqv.</t>
+          <t>kg CO2-eqv.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88054749-b0a6-47ea-a82b-dc5b29326512</t>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial (GWP)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>b4274add-93b7-4905-a5e4-2e878c4e4216</t>
+          <t>06dcd26f-025f-401a-a7c1-5e457eb54637</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Acidification potential of soil and water (AP)</t>
+          <t>Depletion potential of the stratospheric ozone layer (ODP)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>kg SO2-eqv.</t>
+          <t>kg R11-eqv.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>bc50c624-a9bc-45b1-a9b0-e6b10d00476f</t>
+          <t>88054749-b0a6-47ea-a82b-dc5b29326512</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Abbau Potential der stratosphärischen Ozonschicht (ODP)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>kg R11-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>f58827d0-b407-4ec6-be75-8b69efb98a0f</t>
+          <t>b4274add-93b7-4905-a5e4-2e878c4e4216</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Eutrophication potential (EP)</t>
+          <t>Acidification potential of soil and water (AP)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>kg Phosphate-eqv.</t>
+          <t>kg SO2-eqv.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>67b5401d-873c-485f-bcf3-6ae83b918822</t>
+          <t>bc50c624-a9bc-45b1-a9b0-e6b10d00476f</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Versauerungspotenzial von Boden und Wasser (AP)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>kg SO2-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1e84a202-dae6-42aa-9e9d-71ea48b8be00</t>
+          <t>f58827d0-b407-4ec6-be75-8b69efb98a0f</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Formation potential of tropospheric ozone (POCP)</t>
+          <t>Eutrophication potential (EP)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>kg Ethene-eqv.</t>
+          <t>kg Phosphate-eqv.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>01c26c17-9a76-406e-8295-f17b55fd909e</t>
+          <t>67b5401d-873c-485f-bcf3-6ae83b918822</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial (EP)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>kg Phosphat-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>f7c73bb9-ab1a-4249-9c6d-379a0de6f67e</t>
+          <t>1e84a202-dae6-42aa-9e9d-71ea48b8be00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Abiotic depletion potential for non fossil resources (ADPE)</t>
+          <t>Formation potential of tropospheric ozone (POCP)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>kg Sb-eqv.</t>
+          <t>kg Ethene-eqv.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>54ccd2d9-a32a-4fc2-923d-f2c8c93e89d4</t>
+          <t>01c26c17-9a76-406e-8295-f17b55fd909e</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Bildungspotential für troposphärisches Ozon (POCP)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>kg Ethen-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>f7c73bb9-ab1a-4249-9c6d-379a0de6f67e</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Abiotic depletion potential for non fossil resources (ADPE)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>kg Sb-eqv.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>54ccd2d9-a32a-4fc2-923d-f2c8c93e89d4</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Potenzial für den abiotischen Abbau nicht fossiler Ressourcen (ADPE)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>kg Sb-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>804ebcdf-309d-4098-8ed8-fdaf2f389981</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Abiotic depletion potential for fossil resources (ADPF)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Potenzial für den abiotischen Abbau fossiler Brennstoffe (ADPF)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,9 +1914,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="77" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="38" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="77" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="38" customWidth="1" min="5" max="5"/>
+    <col width="95" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1294,17 +1930,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Name (en)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Unit (en)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UnitGroup UUID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Name (de)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Einheit (de)</t>
         </is>
       </c>
     </row>
@@ -1314,19 +1965,29 @@
           <t>20f32be5-0398-4288-9b6d-accddd195317</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Use of renewable primary energy (PERE)</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Erneuerbare Primärenergie als Energieträger (PERE)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1336,19 +1997,29 @@
           <t>fb3ec0de-548d-4508-aea5-00b73bf6f702</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Use of renewable primary energy resources used as raw materials (PERM)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Erneuerbare Primärenergie zur stofflichen Nutzung (PERM)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1358,19 +2029,29 @@
           <t>53f97275-fa8a-4cdd-9024-65936002acd0</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Total use of renewable primary energy resources (PERT)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Total erneuerbare Primärenergie (PERT)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1380,19 +2061,29 @@
           <t>ac857178-2b45-46ec-892a-a9a4332f0372</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Use of non renewable primary energy (PENRE)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nicht-erneuerbare Primärenergie als Energieträger (PENRE)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1402,19 +2093,29 @@
           <t>1421caa0-679d-4bf4-b282-0eb850ccae27</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Use of non renewable primary energy resources used as raw materials (PENRM)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nicht-erneuerbare Primärenergie zur stofflichen Nutzung (PENRM)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1424,19 +2125,29 @@
           <t>06159210-646b-4c8d-8583-da9b3b95a6c1</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Total use of non renewable primary energy resource (PENRT)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Total nicht erneuerbare Primärenergie (PENRT)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1446,19 +2157,29 @@
           <t>c6a1f35f-2d09-4f54-8dfb-97e502e1ce92</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Use of secondary material (SM)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Einsatz von Sekundärstoffen (SM)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1468,19 +2189,29 @@
           <t>64333088-a55f-4aa2-9a31-c10b07816787</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Use of renewable secondary fuels (RSF)</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Erneuerbare Sekundärbrennstoffe (RSF)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1490,19 +2221,29 @@
           <t>89def144-d39a-4287-b86f-efde453ddcb2</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Use of non renewable secondary fuels (NRSF)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nicht erneuerbare Sekundärbrennstoffe (NRSF)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1512,19 +2253,29 @@
           <t>3cf952c8-f3a4-461d-8c96-96456ca62246</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Use of net fresh water (FW)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>cd950537-0a98-4044-9ba7-9f9a68d0a504</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Einsatz von Süßwasserressourcen (FW)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>m3</t>
         </is>
       </c>
     </row>
@@ -1534,19 +2285,29 @@
           <t>430f9e0f-59b2-46a0-8e0d-55e0e84948fc</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Hazardous waste disposed (HWD)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gefährlicher Abfall zur Deponie (HWD)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1556,19 +2317,29 @@
           <t>b29ef66b-e286-4afa-949f-62f1a7b4d7fa</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Non hazardous waste dispose (NHWD)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Entsorgter nicht gefährlicher Abfall (NHWD)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1578,19 +2349,29 @@
           <t>3449546e-52ad-4b39-b809-9fb77cea8ff6</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Radioactive waste disposed (RWD)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Entsorgter radioaktiver Abfall (RWD)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1600,19 +2381,29 @@
           <t>a2b32f97-3fc7-4af2-b209-525bc6426f33</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Components for re-use (CRU)</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Komponenten für die Wiederverwendung (CRU)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1622,19 +2413,29 @@
           <t>d7fe48a5-4103-49c8-9aae-b0b5dfdbd6ae</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Materials for recycling (MFR)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Stoffe zum Recycling (MFR)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1644,19 +2445,29 @@
           <t>59a9181c-3aaf-46ee-8b13-2b3723b6e447</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Materials for energy recovery (MER)</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stoffe für die Energierückgewinnung (MER)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>kg</t>
         </is>
       </c>
     </row>
@@ -1666,19 +2477,29 @@
           <t>4da0c987-2b76-40d6-9e9e-82a017aaaf29</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Exported electrical energy (EEE)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Exportierte elektrische Energie (EEE)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
@@ -1688,449 +2509,747 @@
           <t>98daf38a-7a79-46d3-9a37-2b7bd0955810</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Exported thermal energy (EET)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>MJ</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>b5c611c6-def3-11e6-bf01-fe55135034f3</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Acidification potential, Accumulated Exceedance (AP)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>mol H+ eqv.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>42e089ac-92bf-4bf2-8ca1-5fc40d18f2ed</t>
-        </is>
-      </c>
-    </row>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Exportierte thermische Energie (EET)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6a37f984-a4b3-458a-a20a-64418c145fa2</t>
+          <t>b5c611c6-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Global Warming Potential - total (GWP-total)</t>
+          <t>01.03.009</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kg CO2 eqv.</t>
+          <t>Acidification potential, Accumulated Exceedance (AP)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+          <t>mol H+ eqv.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42e089ac-92bf-4bf2-8ca1-5fc40d18f2ed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Versauerungspotenzial, kumulierte Überschreitung (AP)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>mol H+-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2356e1ab-0185-4db5-86e5-16de51c7485c</t>
+          <t>6a37f984-a4b3-458a-a20a-64418c145fa2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Global Warming Potential - biogenic (GWP-biogenic)</t>
+          <t>04.00.016</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Global Warming Potential - total (GWP-total)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>kg CO2 eqv.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - total (GWP-total)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5f635281-343e-44fb-83df-1971b155e6b6</t>
+          <t>2356e1ab-0185-4db5-86e5-16de51c7485c</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Global Warming Potential - fossil fuels (GWP-fossil)</t>
+          <t>01.00.005</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Global Warming Potential - biogenic (GWP-biogenic)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>kg CO2 eqv.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - biogen (GWP-biogenic)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4331bbdb-978a-490d-8707-eeb047f01a55</t>
+          <t>5f635281-343e-44fb-83df-1971b155e6b6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Global Warming Potential - land use and land use change (GWP-luluc)</t>
+          <t>01.00.008</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Global Warming Potential - fossil fuels (GWP-fossil)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>kg CO2 eqv.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - fossil (GWP-fossil)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ee1082d1-b0f7-43ca-a1f0-21e2a4a74511</t>
+          <t>4331bbdb-978a-490d-8707-eeb047f01a55</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Potential Comparative Toxic Unit for ecosystems (ETP-fw)</t>
+          <t>01.00.005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CTUe</t>
+          <t>Global Warming Potential - land use and land use change (GWP-luluc)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>aa959ded-f1eb-4efb-9c5c-2d60be36b3e6</t>
+          <t>kg CO2 eqv.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - luluc (GWP-luluc)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>b5c602c6-def3-11e6-bf01-fe55135034f3</t>
+          <t>ee1082d1-b0f7-43ca-a1f0-21e2a4a74511</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Potential incidence of disease due to PM emissions (PM)</t>
+          <t>01.00.002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>disease incidence</t>
+          <t>Potential Comparative Toxic Unit for ecosystems (ETP-fw)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3883559b-648f-4afc-8ba2-0bd24f3affa3</t>
+          <t>CTUe</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>aa959ded-f1eb-4efb-9c5c-2d60be36b3e6</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Potenzielle Toxizitätsvergleichseinheit für Ökosysteme (ETP-fw)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CTUe</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>b5c619fa-def3-11e6-bf01-fe55135034f3</t>
+          <t>b5c602c6-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Eutrophication potential - marine (EP-marine)</t>
+          <t>02.00.011</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>kg N eqv.</t>
+          <t>Potential incidence of disease due to PM emissions (PM)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>d05bb823-ecdf-4686-8c40-bf1d9257859f</t>
+          <t>disease incidence</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3883559b-648f-4afc-8ba2-0bd24f3affa3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Potenzielles Auftreten von Krankheiten aufgrund von Feinstaubemissionen (PM)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Auftreten von Krankheiten</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>b53ec18f-7377-4ad3-86eb-cc3f4f276b2b</t>
+          <t>b5c619fa-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Eutrophication potential - freshwater (EP-freshwater)</t>
+          <t>02.00.010</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>kg P eqv.</t>
+          <t>Eutrophication potential - marine (EP-marine)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0429039d-a61d-4590-ba67-aa4a20a810a1</t>
+          <t>kg N eqv.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>d05bb823-ecdf-4686-8c40-bf1d9257859f</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial - Salzwasser (EP-marine)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>kg N-Äq.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>b5c614d2-def3-11e6-bf01-fe55135034f3</t>
+          <t>b53ec18f-7377-4ad3-86eb-cc3f4f276b2b</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Eutrophication potential - terrestrial (EP-terrestrial)</t>
+          <t>01.00.010</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>mol N eqv.</t>
+          <t>Eutrophication potential - freshwater (EP-freshwater)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>71b4d617-0ec9-4d3f-b65e-e438940c2401</t>
+          <t>kg P eqv.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0429039d-a61d-4590-ba67-aa4a20a810a1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial - Süßwasser (EP-freshwater)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>kg P-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2299222a-bbd8-474f-9d4f-4dd1f18aea7c</t>
+          <t>b5c614d2-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Potential Comparative Toxic Unit for humans - cancer effects (HTP-c)</t>
+          <t>01.02.009</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CTUh</t>
+          <t>Eutrophication potential - terrestrial (EP-terrestrial)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>d4c9523e-2d7e-49fd-8469-998f547d3a70</t>
+          <t>mol N eqv.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71b4d617-0ec9-4d3f-b65e-e438940c2401</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial - Land (EP-terrestrial)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>mol N-Äq.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3af763a5-b7a1-48c9-9cee-1f223481fcef</t>
+          <t>2299222a-bbd8-474f-9d4f-4dd1f18aea7c</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Potential Comparative Toxic Unit for humans - non-cancer effects (HTP-nc)</t>
+          <t>01.00.003</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Potential Comparative Toxic Unit for humans - cancer effects (HTP-c)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>CTUh</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>d4c9523e-2d7e-49fd-8469-998f547d3a70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Potenzielle Toxizitätsvergleichseinheit für den Menschen - kanzerogene Wirkung (HTP-c)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CTUh</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>b5c632be-def3-11e6-bf01-fe55135034f3</t>
+          <t>3af763a5-b7a1-48c9-9cee-1f223481fcef</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Potential Human exposure efficiency relative to U235 (IRP)</t>
+          <t>01.00.002</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>kBq U235 eqv.</t>
+          <t>Potential Comparative Toxic Unit for humans - non-cancer effects (HTP-nc)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>456b05bf-1415-44a9-9993-02452f554c09</t>
+          <t>CTUh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>d4c9523e-2d7e-49fd-8469-998f547d3a70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Potenzielle Toxizitätsvergleichseinheit für den Menschen - nicht kanzerogene Wirkung (HTP-nc)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CTUh</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>b2ad6890-c78d-11e6-9d9d-cec0c932ce01</t>
+          <t>b5c632be-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Potential Soil quality index (SQP)</t>
+          <t>01.00.011</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>unitless</t>
+          <t>Potential Human exposure efficiency relative to U235 (IRP)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>f130951c-e67f-4f7f-8dd4-665de3974e18</t>
+          <t>kBq U235 eqv.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>456b05bf-1415-44a9-9993-02452f554c09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Potenzielle Wirkung durch Exposition des Menschen mit U235 (IRP)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kBq U235-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>b5c629d6-def3-11e6-bf01-fe55135034f3</t>
+          <t>b2ad6890-c78d-11e6-9d9d-cec0c932ce01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Depletion potential of the stratospheric ozone layer (ODP)</t>
+          <t>01.00.010</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>kg CFC 11 eqv.</t>
+          <t>Potential Soil quality index (SQP)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>d9e957c9-7309-4474-bf3a-7777df6c4e5b</t>
+          <t>unitless</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f130951c-e67f-4f7f-8dd4-665de3974e18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Potenzieller Bodenqualitätsindex (SQP)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>dimensionslos</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>b5c610fe-def3-11e6-bf01-fe55135034f3</t>
+          <t>b5c629d6-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Photochemical Ozone Creation Potential (POCP)</t>
+          <t>02.00.012</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>kg NMVOC eqv.</t>
+          <t>Depletion potential of the stratospheric ozone layer (ODP)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>d27c25f8-fbc1-44c6-b47b-4adbae4199c6</t>
+          <t>kg CFC 11 eqv.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>d9e957c9-7309-4474-bf3a-7777df6c4e5b</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Abbaupotenzial der stratosphärischen Ozonschicht (ODP)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>kg CFC 11-Äquiv.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>b2ad6110-c78d-11e6-9d9d-cec0c932ce01</t>
+          <t>b5c610fe-def3-11e6-bf01-fe55135034f3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Abiotic depletion potential - fossil resources (ADPF)</t>
+          <t>02.00.013</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>Photochemical Ozone Creation Potential (POCP)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+          <t>kg NMVOC eqv.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>d27c25f8-fbc1-44c6-b47b-4adbae4199c6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bildungspotenzial für troposphärisches Ozon (POCP)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>kg NMVOC-Äqv.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b2ad6494-c78d-11e6-9d9d-cec0c932ce01</t>
+          <t>b2ad6110-c78d-11e6-9d9d-cec0c932ce01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Abiotic depletion potential - non-fossil resources (ADPE)</t>
+          <t>01.00.010</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>kg Sb-eqv.</t>
+          <t>Abiotic depletion potential - fossil resources (ADPF)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>54ccd2d9-a32a-4fc2-923d-f2c8c93e89d4</t>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Potenzial für die Verknappung abiotischer Ressourcen – fossile Brennstoffe (ADPF)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MJ</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>b2ad6494-c78d-11e6-9d9d-cec0c932ce01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01.00.010</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Abiotic depletion potential - non-fossil resources (ADPE)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>kg Sb-eqv.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>54ccd2d9-a32a-4fc2-923d-f2c8c93e89d4</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Potenzial für die Verknappung abiotischer Ressourcen – nicht fossile Ressourcen (ADPE)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>kg Sb-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>b2ad66ce-c78d-11e6-9d9d-cec0c932ce01</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>03.00.014</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
         <is>
           <t>Water (user) deprivation potential (WDP)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>m3 world eqv.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>6ae2df01-888e-46c8-b17d-49fa3869b476</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Wasser-Entzugspotenzial (Benutzer) (WDP)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>m3 Welt-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42">
+      <c r="E42" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
+    <row r="43">
+      <c r="E43" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
@@ -2142,6 +3261,1359 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="77" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="38" customWidth="1" min="5" max="5"/>
+    <col width="95" customWidth="1" min="6" max="6"/>
+    <col width="27" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>UUID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Name (en)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unit (en)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>UnitGroup UUID</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Name (de)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Einheit (de)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20f32be5-0398-4288-9b6d-accddd195317</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Use of renewable primary energy (PERE)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Erneuerbare Primärenergie als Energieträger (PERE)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fb3ec0de-548d-4508-aea5-00b73bf6f702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Use of renewable primary energy resources used as raw materials (PERM)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Erneuerbare Primärenergie zur stofflichen Nutzung (PERM)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>53f97275-fa8a-4cdd-9024-65936002acd0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Total use of renewable primary energy resources (PERT)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Total erneuerbare Primärenergie (PERT)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ac857178-2b45-46ec-892a-a9a4332f0372</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Use of non renewable primary energy (PENRE)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nicht-erneuerbare Primärenergie als Energieträger (PENRE)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1421caa0-679d-4bf4-b282-0eb850ccae27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Use of non renewable primary energy resources used as raw materials (PENRM)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nicht-erneuerbare Primärenergie zur stofflichen Nutzung (PENRM)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06159210-646b-4c8d-8583-da9b3b95a6c1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Total use of non renewable primary energy resource (PENRT)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Total nicht erneuerbare Primärenergie (PENRT)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c6a1f35f-2d09-4f54-8dfb-97e502e1ce92</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Use of secondary material (SM)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Einsatz von Sekundärstoffen (SM)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>64333088-a55f-4aa2-9a31-c10b07816787</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Use of renewable secondary fuels (RSF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Erneuerbare Sekundärbrennstoffe (RSF)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>89def144-d39a-4287-b86f-efde453ddcb2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Use of non renewable secondary fuels (NRSF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nicht erneuerbare Sekundärbrennstoffe (NRSF)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3cf952c8-f3a4-461d-8c96-96456ca62246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Use of net fresh water (FW)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cd950537-0a98-4044-9ba7-9f9a68d0a504</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Einsatz von Süßwasserressourcen (FW)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>430f9e0f-59b2-46a0-8e0d-55e0e84948fc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hazardous waste disposed (HWD)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Gefährlicher Abfall zur Deponie (HWD)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>b29ef66b-e286-4afa-949f-62f1a7b4d7fa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Non hazardous waste dispose (NHWD)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Entsorgter nicht gefährlicher Abfall (NHWD)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3449546e-52ad-4b39-b809-9fb77cea8ff6</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Radioactive waste disposed (RWD)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Entsorgter radioaktiver Abfall (RWD)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>a2b32f97-3fc7-4af2-b209-525bc6426f33</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Components for re-use (CRU)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Komponenten für die Wiederverwendung (CRU)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>d7fe48a5-4103-49c8-9aae-b0b5dfdbd6ae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Materials for recycling (MFR)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Stoffe zum Recycling (MFR)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>59a9181c-3aaf-46ee-8b13-2b3723b6e447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Materials for energy recovery (MER)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Stoffe für die Energierückgewinnung (MER)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4da0c987-2b76-40d6-9e9e-82a017aaaf29</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Exported electrical energy (EEE)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Exportierte elektrische Energie (EEE)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>98daf38a-7a79-46d3-9a37-2b7bd0955810</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Exported thermal energy (EET)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Exportierte thermische Energie (EET)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>b5c611c6-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01.04.000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Acidification potential, Accumulated Exceedance (AP)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>mol H+ eqv.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>42e089ac-92bf-4bf2-8ca1-5fc40d18f2ed</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Versauerungspotenzial, kumulierte Überschreitung (AP)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>mol H+-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>a7ea142a-9749-11ed-a8fc-0242ac120002</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01.00.000</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Global Warming Potential - total (GWP-total)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>kg CO2 eqv.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - total (GWP-total)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>a7ea186c-9749-11ed-a8fc-0242ac120002</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01.00.000</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Global Warming Potential - biogenic (GWP-biogenic)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>kg CO2 eqv.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - biogen (GWP-biogenic)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>a7ea19c0-9749-11ed-a8fc-0242ac120002</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01.00.000</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Global Warming Potential - fossil fuels (GWP-fossil)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>kg CO2 eqv.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - fossil (GWP-fossil)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>a7ea1ae2-9749-11ed-a8fc-0242ac120002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01.00.000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Global Warming Potential - land use and land use change (GWP-luluc)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>kg CO2 eqv.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1ebf3012-d0db-4de2-aefd-ef30cedb0be1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Globales Erwärmungspotenzial - luluc (GWP-luluc)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>kg CO2-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>05316e7a-b254-4bea-9cf0-6bf33eb5c630</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01.00.000</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Potential Comparative Toxic Unit for ecosystems (ETP-fw)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CTUe</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>aa959ded-f1eb-4efb-9c5c-2d60be36b3e6</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Potenzielle Toxizitätsvergleichseinheit für Ökosysteme (ETP-fw)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>CTUe</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>b5c602c6-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>02.00.011</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Potential incidence of disease due to PM emissions (PM)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>disease incidence</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3883559b-648f-4afc-8ba2-0bd24f3affa3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Potenzielles Auftreten von Krankheiten aufgrund von Feinstaubemissionen (PM)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Auftreten von Krankheiten</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>b5c619fa-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>02.00.010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Eutrophication potential - marine (EP-marine)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>kg N eqv.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>d05bb823-ecdf-4686-8c40-bf1d9257859f</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial - Salzwasser (EP-marine)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>kg N-Äq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>b53ec18f-7377-4ad3-86eb-cc3f4f276b2b</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01.00.010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Eutrophication potential - freshwater (EP-freshwater)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>kg P eqv.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0429039d-a61d-4590-ba67-aa4a20a810a1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial - Süßwasser (EP-freshwater)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>kg P-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>b5c614d2-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01.02.009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Eutrophication potential - terrestrial (EP-terrestrial)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>mol N eqv.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>71b4d617-0ec9-4d3f-b65e-e438940c2401</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Eutrophierungspotenzial - Land (EP-terrestrial)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>mol N-Äq.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2299222a-bbd8-474f-9d4f-4dd1f18aea7c</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01.01.000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Potential Comparative Toxic Unit for humans - cancer effects (HTP-c)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CTUh</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>d4c9523e-2d7e-49fd-8469-998f547d3a70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Potenzielle Toxizitätsvergleichseinheit für den Menschen - kanzerogene Wirkung (HTP-c)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>CTUh</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7cfdcfcf-b222-4b26-888a-a55f9fbf7ac8</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01.00.000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Potential Comparative Toxic Unit for humans - non-cancer effects (HTP-nc)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CTUh</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>d4c9523e-2d7e-49fd-8469-998f547d3a70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Potenzielle Toxizitätsvergleichseinheit für den Menschen - nicht kanzerogene Wirkung (HTP-nc)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>CTUh</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>b5c632be-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01.00.011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Potential Human exposure efficiency relative to U235 (IRP)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>kBq U235 eqv.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>456b05bf-1415-44a9-9993-02452f554c09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Potenzielle Wirkung durch Exposition des Menschen mit U235 (IRP)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>kBq U235-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>b2ad6890-c78d-11e6-9d9d-cec0c932ce01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01.00.010</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Potential Soil quality index (SQP)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>unitless</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>f130951c-e67f-4f7f-8dd4-665de3974e18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Potenzieller Bodenqualitätsindex (SQP)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>dimensionslos</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>b5c629d6-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>02.00.012</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Depletion potential of the stratospheric ozone layer (ODP)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>kg CFC 11 eqv.</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>d9e957c9-7309-4474-bf3a-7777df6c4e5b</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Abbaupotenzial der stratosphärischen Ozonschicht (ODP)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>kg CFC 11-Äquiv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>b5c610fe-def3-11e6-bf01-fe55135034f3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>02.01.000</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Photochemical Ozone Creation Potential (POCP)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>kg NMVOC eqv.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>d27c25f8-fbc1-44c6-b47b-4adbae4199c6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Bildungspotenzial für troposphärisches Ozon (POCP)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>kg NMVOC-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>b2ad6110-c78d-11e6-9d9d-cec0c932ce01</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01.00.010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Abiotic depletion potential - fossil resources (ADPF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Potenzial für die Verknappung abiotischer Ressourcen – fossile Brennstoffe (ADPF)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>b2ad6494-c78d-11e6-9d9d-cec0c932ce01</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01.00.010</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Abiotic depletion potential - non-fossil resources (ADPE)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>kg Sb-eqv.</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>54ccd2d9-a32a-4fc2-923d-f2c8c93e89d4</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Potenzial für die Verknappung abiotischer Ressourcen – nicht fossile Ressourcen (ADPE)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>kg Sb-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>b2ad66ce-c78d-11e6-9d9d-cec0c932ce01</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>03.00.014</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Water (user) deprivation potential (WDP)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>m3 world eqv.</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6ae2df01-888e-46c8-b17d-49fa3869b476</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Wasser-Entzugspotenzial (Benutzer) (WDP)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>m3 Welt-Äqv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>updated</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2163,7 +4635,7 @@
     <col width="24" customWidth="1" min="6" max="6"/>
     <col width="21" customWidth="1" min="7" max="7"/>
     <col width="38" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="9" max="9"/>
     <col width="45" customWidth="1" min="10" max="10"/>
     <col width="42" customWidth="1" min="11" max="11"/>
   </cols>
@@ -2201,7 +4673,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Dataset type (#1)</t>
+          <t>Dataset type.1</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2211,7 +4683,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Version (#1)</t>
+          <t>Version.1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -2279,62 +4751,11 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mass</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>flow property data set</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>93a60a56-a3c8-11da-a746-0800200b9a66</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>03.00.000</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Units of mass</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>unit group data set</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>7e18d0ad-e78e-47a0-8e96-1c0a581902e2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
-        </is>
-      </c>
-    </row>
+    <row r="4"/>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Volume</t>
+          <t>Mass</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2344,7 +4765,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>93a60a56-a3c8-22da-a746-0800200c9a66</t>
+          <t>93a60a56-a3c8-11da-a746-0800200b9a66</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2354,12 +4775,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>m3</t>
+          <t>kg</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Units of volume</t>
+          <t>Units of mass</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2369,19 +4790,24 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>93a60a57-a3c8-12da-a746-0800200c9a66</t>
+          <t>93a60a57-a4c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>7e18d0ad-e78e-47a0-8e96-1c0a581902e2</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>cd950537-0a98-4044-9ba7-9f9a68d0a504</t>
+          <t>ad38d542-3fe9-439d-9b95-2f5f7752acaf</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Area</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2391,7 +4817,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>93a60a56-a3c8-19da-a746-0800200c9a66</t>
+          <t>93a60a56-a3c8-22da-a746-0800200c9a66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2401,12 +4827,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Units of area</t>
+          <t>Units of volume</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -2416,19 +4842,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>93a60a57-a3c8-18da-a746-0800200c9a66</t>
+          <t>93a60a57-a3c8-12da-a746-0800200c9a66</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>c20a03d7-bd90-4569-bc94-66cfd364dfc8</t>
+          <t>cd950537-0a98-4044-9ba7-9f9a68d0a504</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Length</t>
+          <t>Area</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2438,7 +4864,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>838aaa23-0117-11db-92e3-0800200c9a66</t>
+          <t>93a60a56-a3c8-19da-a746-0800200c9a66</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2448,12 +4874,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Units of length</t>
+          <t>Units of area</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -2463,14 +4889,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>838aaa22-0117-11db-92e3-0800200c9a66</t>
+          <t>93a60a57-a3c8-18da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>c20a03d7-bd90-4569-bc94-66cfd364dfc8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Number of items</t>
+          <t>Length</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2480,7 +4911,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01846770-4cfe-4a25-8ad9-919d8d378345</t>
+          <t>838aaa23-0117-11db-92e3-0800200c9a66</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2490,12 +4921,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Item(s)</t>
+          <t>m</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Units of items</t>
+          <t>Units of length</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -2505,19 +4936,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5beb6eed-33a9-47b8-9ede-1dfe8f679159</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>934110e3-baf4-49e9-992c-3d8109a6aafb</t>
+          <t>838aaa22-0117-11db-92e3-0800200c9a66</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gross calorific value</t>
+          <t>Number of items</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2527,7 +4953,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>93a60a56-a3c8-14da-a746-0800200c9a66</t>
+          <t>01846770-4cfe-4a25-8ad9-919d8d378345</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2537,12 +4963,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MJ</t>
+          <t>Item(s)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Units of energy</t>
+          <t>Units of items</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -2552,14 +4978,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
+          <t>5beb6eed-33a9-47b8-9ede-1dfe8f679159</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>934110e3-baf4-49e9-992c-3d8109a6aafb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Net calorific value</t>
+          <t>Gross calorific value</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2569,7 +5000,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>93a60a56-a3c8-11da-a746-0800200c9a66</t>
+          <t>93a60a56-a3c8-14da-a746-0800200c9a66</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2601,7 +5032,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Energy renewable (net calorific value)</t>
+          <t>Net calorific value</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2611,14 +5042,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9b784a67-fbb1-4ad2-8774-30c39643b844</t>
+          <t>93a60a56-a3c8-11da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>03.00.000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MJ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Units of energy</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>unit group data set</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-11da-a746-0800200c9a66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mass*time</t>
+          <t>Energy renewable (net calorific value)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2628,34 +5084,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>b3f0f892-c5a3-4c66-a432-c09e3d1e9bd6</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>kg*a</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Units of mass*time</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>unit group data set</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>59f191d6-5dd3-4553-af88-1a32accfe308</t>
+          <t>9b784a67-fbb1-4ad2-8774-30c39643b844</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Area*time</t>
+          <t>Mass*time</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2665,17 +5101,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>93a60a56-a3c8-21da-a746-0800200c9a66</t>
+          <t>b3f0f892-c5a3-4c66-a432-c09e3d1e9bd6</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>m2*a</t>
+          <t>kg*a</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Units of area*time</t>
+          <t>Units of mass*time</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2685,14 +5121,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>93a60a57-a3c8-20da-a746-0800200c9a66</t>
+          <t>59f191d6-5dd3-4553-af88-1a32accfe308</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Volume*time</t>
+          <t>Area*time</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2702,17 +5138,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>441238a3-ba09-46ec-b35b-c30cfba746d1</t>
+          <t>93a60a56-a3c8-21da-a746-0800200c9a66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>m3*a</t>
+          <t>m2*a</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Units of volume*time</t>
+          <t>Units of area*time</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2722,14 +5158,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>93a60a57-a3c8-23da-a746-0800200c9a66</t>
+          <t>93a60a57-a3c8-20da-a746-0800200c9a66</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Duration</t>
+          <t>Volume*time</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2739,29 +5175,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>c0447923-0e60-4b3c-97c2-a86dddd9eea5</t>
+          <t>441238a3-ba09-46ec-b35b-c30cfba746d1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>m3*a</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Units of time</t>
+          <t>Units of volume*time</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>unit group data set</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-23da-a746-0800200c9a66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Goods transport (mass*distance)</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2771,19 +5212,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>838aaa20-0117-11db-92e3-0800200c9a66</t>
+          <t>c0447923-0e60-4b3c-97c2-a86dddd9eea5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>t*km</t>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Units of time</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>unit group data set</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Radioactivity</t>
+          <t>Goods transport (mass*distance)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2793,34 +5244,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>93a60a56-a3c8-17da-a746-0800200c9a66</t>
+          <t>838aaa20-0117-11db-92e3-0800200c9a66</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>kBq</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Units of radioactivity</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>unit group data set</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>93a60a57-a3c8-16da-a746-0800200c9a66</t>
+          <t>t*km</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Radioactivity</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>flow property data set</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>93a60a56-a3c8-17da-a746-0800200c9a66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>kBq</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Units of radioactivity</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>unit group data set</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>93a60a57-a3c8-16da-a746-0800200c9a66</t>
         </is>
       </c>
     </row>
